--- a/ExampleSTR2.xlsx
+++ b/ExampleSTR2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jandrews\Documents\GitHub\strprofiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73E58D4A-BD5D-4822-B6DD-1F21AB68D6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB2DECD-5D14-40FE-B4B5-4D1ECBAB4D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7837" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7522" uniqueCount="140">
   <si>
     <t xml:space="preserve"> Sample Name</t>
   </si>
@@ -1283,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DG73"/>
+  <dimension ref="A1:DG70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3309,25 +3309,25 @@
         <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>415.04</v>
+        <v>344.75</v>
       </c>
       <c r="E7">
-        <v>5099</v>
+        <v>13691</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>435.88</v>
+        <v>348.69</v>
       </c>
       <c r="H7">
-        <v>9426</v>
+        <v>8923</v>
       </c>
       <c r="I7" t="s">
         <v>110</v>
@@ -3644,25 +3644,25 @@
         <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>344.75</v>
+        <v>87.41</v>
       </c>
       <c r="E8">
-        <v>13691</v>
+        <v>18671</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>348.69</v>
+        <v>109.89</v>
       </c>
       <c r="H8">
-        <v>8923</v>
+        <v>9667</v>
       </c>
       <c r="I8" t="s">
         <v>110</v>
@@ -3979,25 +3979,25 @@
         <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>87.41</v>
+        <v>455.95</v>
       </c>
       <c r="E9">
-        <v>18671</v>
+        <v>13504</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>109.89</v>
+        <v>462.06</v>
       </c>
       <c r="H9">
-        <v>9667</v>
+        <v>6186</v>
       </c>
       <c r="I9" t="s">
         <v>110</v>
@@ -4314,25 +4314,25 @@
         <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>455.95</v>
+        <v>397.7</v>
       </c>
       <c r="E10">
-        <v>13504</v>
+        <v>7420</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>462.06</v>
+        <v>412.02</v>
       </c>
       <c r="H10">
-        <v>6186</v>
+        <v>5986</v>
       </c>
       <c r="I10" t="s">
         <v>110</v>
@@ -4649,25 +4649,25 @@
         <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>397.7</v>
+        <v>153.72</v>
       </c>
       <c r="E11">
-        <v>7420</v>
+        <v>9134</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11">
-        <v>412.02</v>
+        <v>170.48</v>
       </c>
       <c r="H11">
-        <v>5986</v>
+        <v>10501</v>
       </c>
       <c r="I11" t="s">
         <v>110</v>
@@ -4984,25 +4984,25 @@
         <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>153.72</v>
+        <v>263.91000000000003</v>
       </c>
       <c r="E12">
-        <v>9134</v>
+        <v>3209</v>
       </c>
       <c r="F12">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G12">
-        <v>170.48</v>
+        <v>267.97000000000003</v>
       </c>
       <c r="H12">
-        <v>10501</v>
+        <v>3834</v>
       </c>
       <c r="I12" t="s">
         <v>110</v>
@@ -5319,25 +5319,25 @@
         <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>263.91000000000003</v>
+        <v>85.33</v>
       </c>
       <c r="E13">
-        <v>3209</v>
+        <v>8305</v>
       </c>
       <c r="F13">
-        <v>21</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G13">
-        <v>267.97000000000003</v>
+        <v>97.43</v>
       </c>
       <c r="H13">
-        <v>3834</v>
+        <v>7853</v>
       </c>
       <c r="I13" t="s">
         <v>110</v>
@@ -5654,25 +5654,25 @@
         <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>85.33</v>
+        <v>144.47</v>
       </c>
       <c r="E14">
-        <v>8305</v>
+        <v>7151</v>
       </c>
       <c r="F14">
-        <v>9.3000000000000007</v>
+        <v>15</v>
       </c>
       <c r="G14">
-        <v>97.43</v>
+        <v>148.53</v>
       </c>
       <c r="H14">
-        <v>7853</v>
+        <v>8447</v>
       </c>
       <c r="I14" t="s">
         <v>110</v>
@@ -5989,25 +5989,25 @@
         <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>292.51</v>
+      </c>
+      <c r="E15">
+        <v>12340</v>
+      </c>
+      <c r="F15">
         <v>14</v>
       </c>
-      <c r="D15">
-        <v>144.47</v>
-      </c>
-      <c r="E15">
-        <v>7151</v>
-      </c>
-      <c r="F15">
-        <v>15</v>
-      </c>
       <c r="G15">
-        <v>148.53</v>
+        <v>308.70999999999998</v>
       </c>
       <c r="H15">
-        <v>8447</v>
+        <v>11784</v>
       </c>
       <c r="I15" t="s">
         <v>110</v>
@@ -6324,25 +6324,25 @@
         <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>292.51</v>
+        <v>141.53</v>
       </c>
       <c r="E16">
-        <v>12340</v>
+        <v>12870</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>18.3</v>
       </c>
       <c r="G16">
-        <v>308.70999999999998</v>
+        <v>157.12</v>
       </c>
       <c r="H16">
-        <v>11784</v>
+        <v>13731</v>
       </c>
       <c r="I16" t="s">
         <v>110</v>
@@ -6659,25 +6659,25 @@
         <v>137</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
       </c>
       <c r="D17">
-        <v>141.53</v>
+        <v>81.97</v>
       </c>
       <c r="E17">
-        <v>12870</v>
-      </c>
-      <c r="F17">
-        <v>18.3</v>
-      </c>
-      <c r="G17">
-        <v>157.12</v>
-      </c>
-      <c r="H17">
-        <v>13731</v>
+        <v>16696</v>
+      </c>
+      <c r="F17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" t="s">
+        <v>110</v>
       </c>
       <c r="I17" t="s">
         <v>110</v>
@@ -6994,16 +6994,16 @@
         <v>137</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" t="s">
-        <v>135</v>
+        <v>115</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>81.97</v>
+        <v>283.82</v>
       </c>
       <c r="E18">
-        <v>16696</v>
+        <v>8469</v>
       </c>
       <c r="F18" t="s">
         <v>110</v>
@@ -7329,16 +7329,16 @@
         <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>283.82</v>
+        <v>328.21</v>
       </c>
       <c r="E19">
-        <v>8469</v>
+        <v>7079</v>
       </c>
       <c r="F19" t="s">
         <v>110</v>
@@ -7664,16 +7664,16 @@
         <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C20">
         <v>12</v>
       </c>
       <c r="D20">
-        <v>328.21</v>
+        <v>345.11</v>
       </c>
       <c r="E20">
-        <v>7079</v>
+        <v>14598</v>
       </c>
       <c r="F20" t="s">
         <v>110</v>
@@ -7999,16 +7999,16 @@
         <v>137</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="D21">
-        <v>345.11</v>
+        <v>239.67</v>
       </c>
       <c r="E21">
-        <v>14598</v>
+        <v>19231</v>
       </c>
       <c r="F21" t="s">
         <v>110</v>
@@ -8334,16 +8334,16 @@
         <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C22">
-        <v>32.200000000000003</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>239.67</v>
+        <v>424.02</v>
       </c>
       <c r="E22">
-        <v>19231</v>
+        <v>12239</v>
       </c>
       <c r="F22" t="s">
         <v>110</v>
@@ -8669,16 +8669,16 @@
         <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>424.02</v>
+        <v>228.37</v>
       </c>
       <c r="E23">
-        <v>12239</v>
+        <v>14273</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -9004,16 +9004,16 @@
         <v>137</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>228.37</v>
+        <v>302.23</v>
       </c>
       <c r="E24">
-        <v>14273</v>
+        <v>14599</v>
       </c>
       <c r="F24" t="s">
         <v>110</v>
@@ -9336,28 +9336,28 @@
     </row>
     <row r="25" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>302.23</v>
+        <v>97.59</v>
       </c>
       <c r="E25">
-        <v>14599</v>
-      </c>
-      <c r="F25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" t="s">
-        <v>110</v>
+        <v>9286</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>106.43</v>
+      </c>
+      <c r="H25">
+        <v>8592</v>
       </c>
       <c r="I25" t="s">
         <v>110</v>
@@ -9674,25 +9674,25 @@
         <v>138</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D26">
-        <v>97.59</v>
+        <v>97.45</v>
       </c>
       <c r="E26">
-        <v>9286</v>
-      </c>
-      <c r="F26">
-        <v>11</v>
-      </c>
-      <c r="G26">
-        <v>106.43</v>
-      </c>
-      <c r="H26">
-        <v>8592</v>
+        <v>5920</v>
+      </c>
+      <c r="F26" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" t="s">
+        <v>110</v>
       </c>
       <c r="I26" t="s">
         <v>110</v>
@@ -10009,16 +10009,16 @@
         <v>138</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C27">
-        <v>9.3000000000000007</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>97.45</v>
+        <v>101.1</v>
       </c>
       <c r="E27">
-        <v>5920</v>
+        <v>26414</v>
       </c>
       <c r="F27" t="s">
         <v>110</v>
@@ -10344,25 +10344,25 @@
         <v>138</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>101.1</v>
+        <v>296.52</v>
       </c>
       <c r="E28">
-        <v>26414</v>
-      </c>
-      <c r="F28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H28" t="s">
-        <v>110</v>
+        <v>18559</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>300.7</v>
+      </c>
+      <c r="H28">
+        <v>11582</v>
       </c>
       <c r="I28" t="s">
         <v>110</v>
@@ -10679,25 +10679,25 @@
         <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29">
-        <v>11</v>
+        <v>134</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
       </c>
       <c r="D29">
-        <v>296.52</v>
+        <v>82.1</v>
       </c>
       <c r="E29">
-        <v>18559</v>
-      </c>
-      <c r="F29">
-        <v>12</v>
+        <v>7476</v>
+      </c>
+      <c r="F29" t="s">
+        <v>136</v>
       </c>
       <c r="G29">
-        <v>300.7</v>
+        <v>88.34</v>
       </c>
       <c r="H29">
-        <v>11582</v>
+        <v>8029</v>
       </c>
       <c r="I29" t="s">
         <v>110</v>
@@ -11014,25 +11014,25 @@
         <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" t="s">
-        <v>135</v>
+        <v>128</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>82.1</v>
+        <v>119.87</v>
       </c>
       <c r="E30">
-        <v>7476</v>
-      </c>
-      <c r="F30" t="s">
-        <v>136</v>
+        <v>10146</v>
+      </c>
+      <c r="F30">
+        <v>15</v>
       </c>
       <c r="G30">
-        <v>88.34</v>
+        <v>124.14</v>
       </c>
       <c r="H30">
-        <v>8029</v>
+        <v>10160</v>
       </c>
       <c r="I30" t="s">
         <v>110</v>
@@ -11349,25 +11349,25 @@
         <v>138</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>172</v>
+      </c>
+      <c r="E31">
+        <v>7375</v>
+      </c>
+      <c r="F31">
         <v>14</v>
       </c>
-      <c r="D31">
-        <v>119.87</v>
-      </c>
-      <c r="E31">
-        <v>10146</v>
-      </c>
-      <c r="F31">
-        <v>15</v>
-      </c>
       <c r="G31">
-        <v>124.14</v>
+        <v>180.24</v>
       </c>
       <c r="H31">
-        <v>10160</v>
+        <v>9153</v>
       </c>
       <c r="I31" t="s">
         <v>110</v>
@@ -11684,25 +11684,25 @@
         <v>138</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>172</v>
+        <v>392.89</v>
       </c>
       <c r="E32">
-        <v>7375</v>
+        <v>7517</v>
       </c>
       <c r="F32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32">
-        <v>180.24</v>
+        <v>407.31</v>
       </c>
       <c r="H32">
-        <v>9153</v>
+        <v>8497</v>
       </c>
       <c r="I32" t="s">
         <v>110</v>
@@ -12019,25 +12019,25 @@
         <v>138</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>392.89</v>
+        <v>153.80000000000001</v>
       </c>
       <c r="E33">
-        <v>7517</v>
+        <v>9316</v>
       </c>
       <c r="F33">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G33">
-        <v>407.31</v>
+        <v>178.79</v>
       </c>
       <c r="H33">
-        <v>8497</v>
+        <v>9182</v>
       </c>
       <c r="I33" t="s">
         <v>110</v>
@@ -12354,25 +12354,25 @@
         <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>153.80000000000001</v>
+        <v>263.92</v>
       </c>
       <c r="E34">
-        <v>9316</v>
+        <v>4943</v>
       </c>
       <c r="F34">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G34">
-        <v>178.79</v>
+        <v>284.32</v>
       </c>
       <c r="H34">
-        <v>9182</v>
+        <v>3863</v>
       </c>
       <c r="I34" t="s">
         <v>110</v>
@@ -12689,25 +12689,25 @@
         <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>263.92</v>
+        <v>337.07</v>
       </c>
       <c r="E35">
-        <v>4943</v>
+        <v>10400</v>
       </c>
       <c r="F35">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G35">
-        <v>284.32</v>
+        <v>341.1</v>
       </c>
       <c r="H35">
-        <v>3863</v>
+        <v>10472</v>
       </c>
       <c r="I35" t="s">
         <v>110</v>
@@ -13024,25 +13024,25 @@
         <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>337.07</v>
+        <v>156.9</v>
       </c>
       <c r="E36">
-        <v>10400</v>
+        <v>7953</v>
       </c>
       <c r="F36">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G36">
-        <v>341.1</v>
+        <v>160.86000000000001</v>
       </c>
       <c r="H36">
-        <v>10472</v>
+        <v>8230</v>
       </c>
       <c r="I36" t="s">
         <v>110</v>
@@ -13359,25 +13359,25 @@
         <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D37">
-        <v>420.13</v>
+        <v>225.48</v>
       </c>
       <c r="E37">
-        <v>7693</v>
+        <v>10672</v>
       </c>
       <c r="F37">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G37">
-        <v>425.25</v>
+        <v>229.55</v>
       </c>
       <c r="H37">
-        <v>7945</v>
+        <v>8861</v>
       </c>
       <c r="I37" t="s">
         <v>110</v>
@@ -13694,25 +13694,25 @@
         <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D38">
-        <v>156.9</v>
+        <v>416</v>
       </c>
       <c r="E38">
-        <v>7953</v>
+        <v>6596</v>
       </c>
       <c r="F38">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G38">
-        <v>160.86000000000001</v>
+        <v>424.02</v>
       </c>
       <c r="H38">
-        <v>8230</v>
+        <v>5304</v>
       </c>
       <c r="I38" t="s">
         <v>110</v>
@@ -14029,25 +14029,25 @@
         <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C39">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>225.48</v>
+        <v>166.75</v>
       </c>
       <c r="E39">
-        <v>10672</v>
+        <v>13481</v>
       </c>
       <c r="F39">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G39">
-        <v>229.55</v>
+        <v>170.9</v>
       </c>
       <c r="H39">
-        <v>8861</v>
+        <v>14232</v>
       </c>
       <c r="I39" t="s">
         <v>110</v>
@@ -14364,25 +14364,25 @@
         <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C40">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D40">
-        <v>416</v>
+        <v>228.35</v>
       </c>
       <c r="E40">
-        <v>6596</v>
+        <v>9596</v>
       </c>
       <c r="F40">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G40">
-        <v>424.02</v>
+        <v>232.42</v>
       </c>
       <c r="H40">
-        <v>5304</v>
+        <v>9304</v>
       </c>
       <c r="I40" t="s">
         <v>110</v>
@@ -14699,25 +14699,25 @@
         <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C41">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>166.75</v>
+        <v>455.95</v>
       </c>
       <c r="E41">
-        <v>13481</v>
+        <v>14310</v>
       </c>
       <c r="F41">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G41">
-        <v>170.9</v>
+        <v>462.06</v>
       </c>
       <c r="H41">
-        <v>14232</v>
+        <v>10898</v>
       </c>
       <c r="I41" t="s">
         <v>110</v>
@@ -15034,25 +15034,25 @@
         <v>138</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C42">
         <v>14</v>
       </c>
       <c r="D42">
-        <v>228.35</v>
+        <v>236.24</v>
       </c>
       <c r="E42">
-        <v>9596</v>
-      </c>
-      <c r="F42">
-        <v>15</v>
-      </c>
-      <c r="G42">
-        <v>232.42</v>
-      </c>
-      <c r="H42">
-        <v>9304</v>
+        <v>18628</v>
+      </c>
+      <c r="F42" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" t="s">
+        <v>110</v>
       </c>
       <c r="I42" t="s">
         <v>110</v>
@@ -15369,25 +15369,25 @@
         <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43">
-        <v>455.95</v>
+        <v>272.14999999999998</v>
       </c>
       <c r="E43">
-        <v>14310</v>
-      </c>
-      <c r="F43">
-        <v>17</v>
-      </c>
-      <c r="G43">
-        <v>462.06</v>
-      </c>
-      <c r="H43">
-        <v>10898</v>
+        <v>9357</v>
+      </c>
+      <c r="F43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" t="s">
+        <v>110</v>
       </c>
       <c r="I43" t="s">
         <v>110</v>
@@ -15704,16 +15704,16 @@
         <v>138</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44">
-        <v>236.24</v>
+        <v>332.33</v>
       </c>
       <c r="E44">
-        <v>18628</v>
+        <v>7288</v>
       </c>
       <c r="F44" t="s">
         <v>110</v>
@@ -16039,16 +16039,16 @@
         <v>138</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C45">
         <v>13</v>
       </c>
       <c r="D45">
-        <v>272.14999999999998</v>
+        <v>352.73</v>
       </c>
       <c r="E45">
-        <v>9357</v>
+        <v>20964</v>
       </c>
       <c r="F45" t="s">
         <v>110</v>
@@ -16374,16 +16374,16 @@
         <v>138</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C46">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D46">
-        <v>332.33</v>
+        <v>468.83</v>
       </c>
       <c r="E46">
-        <v>7288</v>
+        <v>6722</v>
       </c>
       <c r="F46" t="s">
         <v>110</v>
@@ -16709,16 +16709,16 @@
         <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C47">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D47">
-        <v>352.73</v>
+        <v>294.67</v>
       </c>
       <c r="E47">
-        <v>20964</v>
+        <v>11941</v>
       </c>
       <c r="F47" t="s">
         <v>110</v>
@@ -17041,28 +17041,28 @@
     </row>
     <row r="48" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>15.3</v>
       </c>
       <c r="D48">
-        <v>468.83</v>
+        <v>187.29</v>
       </c>
       <c r="E48">
-        <v>6722</v>
-      </c>
-      <c r="F48" t="s">
-        <v>110</v>
-      </c>
-      <c r="G48" t="s">
-        <v>110</v>
-      </c>
-      <c r="H48" t="s">
-        <v>110</v>
+        <v>9040</v>
+      </c>
+      <c r="F48">
+        <v>16.3</v>
+      </c>
+      <c r="G48">
+        <v>195.28</v>
+      </c>
+      <c r="H48">
+        <v>18205</v>
       </c>
       <c r="I48" t="s">
         <v>110</v>
@@ -17376,28 +17376,28 @@
     </row>
     <row r="49" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49">
-        <v>21</v>
+        <v>134</v>
+      </c>
+      <c r="C49" t="s">
+        <v>135</v>
       </c>
       <c r="D49">
-        <v>294.67</v>
+        <v>82.11</v>
       </c>
       <c r="E49">
-        <v>11941</v>
+        <v>7477</v>
       </c>
       <c r="F49" t="s">
-        <v>110</v>
-      </c>
-      <c r="G49" t="s">
-        <v>110</v>
-      </c>
-      <c r="H49" t="s">
-        <v>110</v>
+        <v>136</v>
+      </c>
+      <c r="G49">
+        <v>88.21</v>
+      </c>
+      <c r="H49">
+        <v>7814</v>
       </c>
       <c r="I49" t="s">
         <v>110</v>
@@ -17714,25 +17714,25 @@
         <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C50">
-        <v>15.3</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>187.29</v>
+        <v>132.63999999999999</v>
       </c>
       <c r="E50">
-        <v>9040</v>
+        <v>10335</v>
       </c>
       <c r="F50">
-        <v>16.3</v>
+        <v>18</v>
       </c>
       <c r="G50">
-        <v>195.28</v>
+        <v>136.84</v>
       </c>
       <c r="H50">
-        <v>18205</v>
+        <v>9242</v>
       </c>
       <c r="I50" t="s">
         <v>110</v>
@@ -18049,25 +18049,25 @@
         <v>139</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" t="s">
-        <v>135</v>
+        <v>123</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
       </c>
       <c r="D51">
-        <v>82.11</v>
+        <v>219.84</v>
       </c>
       <c r="E51">
-        <v>7477</v>
-      </c>
-      <c r="F51" t="s">
-        <v>136</v>
+        <v>9598</v>
+      </c>
+      <c r="F51">
+        <v>11.3</v>
       </c>
       <c r="G51">
-        <v>88.21</v>
+        <v>226.93</v>
       </c>
       <c r="H51">
-        <v>7814</v>
+        <v>9949</v>
       </c>
       <c r="I51" t="s">
         <v>110</v>
@@ -18384,25 +18384,25 @@
         <v>139</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C52">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>132.63999999999999</v>
+        <v>383.31</v>
       </c>
       <c r="E52">
-        <v>10335</v>
+        <v>7635</v>
       </c>
       <c r="F52">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G52">
-        <v>136.84</v>
+        <v>436</v>
       </c>
       <c r="H52">
-        <v>9242</v>
+        <v>5488</v>
       </c>
       <c r="I52" t="s">
         <v>110</v>
@@ -18719,25 +18719,25 @@
         <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D53">
-        <v>219.84</v>
+        <v>110.76</v>
       </c>
       <c r="E53">
-        <v>9598</v>
+        <v>10475</v>
       </c>
       <c r="F53">
-        <v>11.3</v>
+        <v>13</v>
       </c>
       <c r="G53">
-        <v>226.93</v>
+        <v>115.2</v>
       </c>
       <c r="H53">
-        <v>9949</v>
+        <v>9175</v>
       </c>
       <c r="I53" t="s">
         <v>110</v>
@@ -19054,25 +19054,25 @@
         <v>139</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D54">
-        <v>383.31</v>
+        <v>251.68</v>
       </c>
       <c r="E54">
-        <v>7635</v>
+        <v>7511</v>
       </c>
       <c r="F54">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G54">
-        <v>436</v>
+        <v>272.04000000000002</v>
       </c>
       <c r="H54">
-        <v>5488</v>
+        <v>6519</v>
       </c>
       <c r="I54" t="s">
         <v>110</v>
@@ -19389,25 +19389,25 @@
         <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C55">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D55">
-        <v>110.76</v>
+        <v>85.45</v>
       </c>
       <c r="E55">
-        <v>10475</v>
+        <v>7367</v>
       </c>
       <c r="F55">
-        <v>13</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G55">
-        <v>115.2</v>
+        <v>97.46</v>
       </c>
       <c r="H55">
-        <v>9175</v>
+        <v>8343</v>
       </c>
       <c r="I55" t="s">
         <v>110</v>
@@ -19724,25 +19724,25 @@
         <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C56">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>251.68</v>
+        <v>152.72</v>
       </c>
       <c r="E56">
-        <v>7511</v>
+        <v>9328</v>
       </c>
       <c r="F56">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G56">
-        <v>272.04000000000002</v>
+        <v>156.87</v>
       </c>
       <c r="H56">
-        <v>6519</v>
+        <v>12075</v>
       </c>
       <c r="I56" t="s">
         <v>110</v>
@@ -20059,16 +20059,25 @@
         <v>139</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57">
-        <v>414.99</v>
+        <v>284.39999999999998</v>
       </c>
       <c r="E57">
-        <v>7595</v>
+        <v>10513</v>
+      </c>
+      <c r="F57">
+        <v>11</v>
+      </c>
+      <c r="G57">
+        <v>300.58999999999997</v>
+      </c>
+      <c r="H57">
+        <v>10339</v>
       </c>
       <c r="I57" t="s">
         <v>110</v>
@@ -20385,25 +20394,25 @@
         <v>139</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D58">
-        <v>85.45</v>
+        <v>344.73</v>
       </c>
       <c r="E58">
-        <v>7367</v>
+        <v>12983</v>
       </c>
       <c r="F58">
-        <v>9.3000000000000007</v>
+        <v>12</v>
       </c>
       <c r="G58">
-        <v>97.46</v>
+        <v>348.8</v>
       </c>
       <c r="H58">
-        <v>8343</v>
+        <v>11937</v>
       </c>
       <c r="I58" t="s">
         <v>110</v>
@@ -20720,25 +20729,25 @@
         <v>139</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D59">
-        <v>152.72</v>
+        <v>411.95</v>
       </c>
       <c r="E59">
-        <v>9328</v>
+        <v>8522</v>
       </c>
       <c r="F59">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G59">
-        <v>156.87</v>
+        <v>416.08</v>
       </c>
       <c r="H59">
-        <v>12075</v>
+        <v>8936</v>
       </c>
       <c r="I59" t="s">
         <v>110</v>
@@ -21055,25 +21064,25 @@
         <v>139</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C60">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D60">
-        <v>284.39999999999998</v>
+        <v>100.96</v>
       </c>
       <c r="E60">
-        <v>10513</v>
+        <v>16700</v>
       </c>
       <c r="F60">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G60">
-        <v>300.58999999999997</v>
+        <v>105.47</v>
       </c>
       <c r="H60">
-        <v>10339</v>
+        <v>13890</v>
       </c>
       <c r="I60" t="s">
         <v>110</v>
@@ -21390,25 +21399,25 @@
         <v>139</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C61">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D61">
-        <v>344.73</v>
+        <v>149.94</v>
       </c>
       <c r="E61">
-        <v>12983</v>
+        <v>21456</v>
       </c>
       <c r="F61">
-        <v>12</v>
+        <v>18.3</v>
       </c>
       <c r="G61">
-        <v>348.8</v>
+        <v>157.37</v>
       </c>
       <c r="H61">
-        <v>11937</v>
+        <v>15960</v>
       </c>
       <c r="I61" t="s">
         <v>110</v>
@@ -21725,25 +21734,25 @@
         <v>139</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D62">
-        <v>411.95</v>
+        <v>228.49</v>
       </c>
       <c r="E62">
-        <v>8522</v>
+        <v>10947</v>
       </c>
       <c r="F62">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G62">
-        <v>416.08</v>
+        <v>232.46</v>
       </c>
       <c r="H62">
-        <v>8936</v>
+        <v>11251</v>
       </c>
       <c r="I62" t="s">
         <v>110</v>
@@ -22060,25 +22069,25 @@
         <v>139</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C63">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D63">
-        <v>100.96</v>
+        <v>458.98</v>
       </c>
       <c r="E63">
-        <v>16700</v>
+        <v>11584</v>
       </c>
       <c r="F63">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G63">
-        <v>105.47</v>
+        <v>461.99</v>
       </c>
       <c r="H63">
-        <v>13890</v>
+        <v>11146</v>
       </c>
       <c r="I63" t="s">
         <v>110</v>
@@ -22395,25 +22404,25 @@
         <v>139</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C64">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D64">
-        <v>149.94</v>
+        <v>279.94</v>
       </c>
       <c r="E64">
-        <v>21456</v>
-      </c>
-      <c r="F64">
-        <v>18.3</v>
-      </c>
-      <c r="G64">
-        <v>157.37</v>
-      </c>
-      <c r="H64">
-        <v>15960</v>
+        <v>8671</v>
+      </c>
+      <c r="F64" t="s">
+        <v>110</v>
+      </c>
+      <c r="G64" t="s">
+        <v>110</v>
+      </c>
+      <c r="H64" t="s">
+        <v>110</v>
       </c>
       <c r="I64" t="s">
         <v>110</v>
@@ -22730,25 +22739,25 @@
         <v>139</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C65">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D65">
-        <v>228.49</v>
+        <v>328.22</v>
       </c>
       <c r="E65">
-        <v>10947</v>
-      </c>
-      <c r="F65">
-        <v>15</v>
-      </c>
-      <c r="G65">
-        <v>232.46</v>
-      </c>
-      <c r="H65">
-        <v>11251</v>
+        <v>13765</v>
+      </c>
+      <c r="F65" t="s">
+        <v>110</v>
+      </c>
+      <c r="G65" t="s">
+        <v>110</v>
+      </c>
+      <c r="H65" t="s">
+        <v>110</v>
       </c>
       <c r="I65" t="s">
         <v>110</v>
@@ -23065,25 +23074,25 @@
         <v>139</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C66">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D66">
-        <v>458.98</v>
+        <v>166.39</v>
       </c>
       <c r="E66">
-        <v>11584</v>
-      </c>
-      <c r="F66">
-        <v>17</v>
-      </c>
-      <c r="G66">
-        <v>461.99</v>
-      </c>
-      <c r="H66">
-        <v>11146</v>
+        <v>9779</v>
+      </c>
+      <c r="F66" t="s">
+        <v>110</v>
+      </c>
+      <c r="G66" t="s">
+        <v>110</v>
+      </c>
+      <c r="H66" t="s">
+        <v>110</v>
       </c>
       <c r="I66" t="s">
         <v>110</v>
@@ -23400,16 +23409,16 @@
         <v>139</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D67">
-        <v>279.94</v>
+        <v>345.21</v>
       </c>
       <c r="E67">
-        <v>8671</v>
+        <v>11373</v>
       </c>
       <c r="F67" t="s">
         <v>110</v>
@@ -23735,16 +23744,16 @@
         <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C68">
-        <v>12</v>
+        <v>31.2</v>
       </c>
       <c r="D68">
-        <v>328.22</v>
+        <v>235.71</v>
       </c>
       <c r="E68">
-        <v>13765</v>
+        <v>18950</v>
       </c>
       <c r="F68" t="s">
         <v>110</v>
@@ -24070,16 +24079,16 @@
         <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D69">
-        <v>166.39</v>
+        <v>468.79</v>
       </c>
       <c r="E69">
-        <v>9779</v>
+        <v>3856</v>
       </c>
       <c r="F69" t="s">
         <v>110</v>
@@ -24405,16 +24414,16 @@
         <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C70">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D70">
-        <v>345.21</v>
+        <v>287.10000000000002</v>
       </c>
       <c r="E70">
-        <v>11373</v>
+        <v>14273</v>
       </c>
       <c r="F70" t="s">
         <v>110</v>
@@ -24732,1017 +24741,12 @@
         <v>110</v>
       </c>
       <c r="DG70" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" t="s">
-        <v>119</v>
-      </c>
-      <c r="C71">
-        <v>31.2</v>
-      </c>
-      <c r="D71">
-        <v>235.71</v>
-      </c>
-      <c r="E71">
-        <v>18950</v>
-      </c>
-      <c r="F71" t="s">
-        <v>110</v>
-      </c>
-      <c r="G71" t="s">
-        <v>110</v>
-      </c>
-      <c r="H71" t="s">
-        <v>110</v>
-      </c>
-      <c r="I71" t="s">
-        <v>110</v>
-      </c>
-      <c r="J71" t="s">
-        <v>110</v>
-      </c>
-      <c r="K71" t="s">
-        <v>110</v>
-      </c>
-      <c r="L71" t="s">
-        <v>110</v>
-      </c>
-      <c r="M71" t="s">
-        <v>110</v>
-      </c>
-      <c r="N71" t="s">
-        <v>110</v>
-      </c>
-      <c r="O71" t="s">
-        <v>110</v>
-      </c>
-      <c r="P71" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>110</v>
-      </c>
-      <c r="R71" t="s">
-        <v>110</v>
-      </c>
-      <c r="S71" t="s">
-        <v>110</v>
-      </c>
-      <c r="T71" t="s">
-        <v>110</v>
-      </c>
-      <c r="U71" t="s">
-        <v>110</v>
-      </c>
-      <c r="V71" t="s">
-        <v>110</v>
-      </c>
-      <c r="W71" t="s">
-        <v>110</v>
-      </c>
-      <c r="X71" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BB71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BD71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BG71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BJ71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BK71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BL71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BM71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BN71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BP71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BQ71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BR71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BS71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BU71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BV71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BW71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BX71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BY71" t="s">
-        <v>110</v>
-      </c>
-      <c r="BZ71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CA71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CB71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CC71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CD71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CE71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CF71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CG71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CH71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CI71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CJ71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CK71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CL71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CM71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CN71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CO71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CP71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CQ71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CR71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CS71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CT71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CU71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CV71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CW71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CX71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CY71" t="s">
-        <v>110</v>
-      </c>
-      <c r="CZ71" t="s">
-        <v>110</v>
-      </c>
-      <c r="DA71" t="s">
-        <v>110</v>
-      </c>
-      <c r="DB71" t="s">
-        <v>110</v>
-      </c>
-      <c r="DC71" t="s">
-        <v>110</v>
-      </c>
-      <c r="DD71" t="s">
-        <v>110</v>
-      </c>
-      <c r="DE71" t="s">
-        <v>110</v>
-      </c>
-      <c r="DF71" t="s">
-        <v>110</v>
-      </c>
-      <c r="DG71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>139</v>
-      </c>
-      <c r="B72" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72">
-        <v>10</v>
-      </c>
-      <c r="D72">
-        <v>468.79</v>
-      </c>
-      <c r="E72">
-        <v>3856</v>
-      </c>
-      <c r="F72" t="s">
-        <v>110</v>
-      </c>
-      <c r="G72" t="s">
-        <v>110</v>
-      </c>
-      <c r="H72" t="s">
-        <v>110</v>
-      </c>
-      <c r="I72" t="s">
-        <v>110</v>
-      </c>
-      <c r="J72" t="s">
-        <v>110</v>
-      </c>
-      <c r="K72" t="s">
-        <v>110</v>
-      </c>
-      <c r="L72" t="s">
-        <v>110</v>
-      </c>
-      <c r="M72" t="s">
-        <v>110</v>
-      </c>
-      <c r="N72" t="s">
-        <v>110</v>
-      </c>
-      <c r="O72" t="s">
-        <v>110</v>
-      </c>
-      <c r="P72" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>110</v>
-      </c>
-      <c r="R72" t="s">
-        <v>110</v>
-      </c>
-      <c r="S72" t="s">
-        <v>110</v>
-      </c>
-      <c r="T72" t="s">
-        <v>110</v>
-      </c>
-      <c r="U72" t="s">
-        <v>110</v>
-      </c>
-      <c r="V72" t="s">
-        <v>110</v>
-      </c>
-      <c r="W72" t="s">
-        <v>110</v>
-      </c>
-      <c r="X72" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY72" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BB72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BD72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BG72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BJ72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BK72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BL72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BM72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BN72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BP72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BQ72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BR72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BS72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BU72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BV72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BW72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BX72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BY72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BZ72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CA72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CB72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CC72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CD72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CE72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CF72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CG72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CH72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CI72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CJ72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CK72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CL72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CM72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CN72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CO72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CP72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CQ72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CR72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CS72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CT72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CU72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CV72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CW72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CX72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CY72" t="s">
-        <v>110</v>
-      </c>
-      <c r="CZ72" t="s">
-        <v>110</v>
-      </c>
-      <c r="DA72" t="s">
-        <v>110</v>
-      </c>
-      <c r="DB72" t="s">
-        <v>110</v>
-      </c>
-      <c r="DC72" t="s">
-        <v>110</v>
-      </c>
-      <c r="DD72" t="s">
-        <v>110</v>
-      </c>
-      <c r="DE72" t="s">
-        <v>110</v>
-      </c>
-      <c r="DF72" t="s">
-        <v>110</v>
-      </c>
-      <c r="DG72" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>139</v>
-      </c>
-      <c r="B73" t="s">
-        <v>130</v>
-      </c>
-      <c r="C73">
-        <v>19</v>
-      </c>
-      <c r="D73">
-        <v>287.10000000000002</v>
-      </c>
-      <c r="E73">
-        <v>14273</v>
-      </c>
-      <c r="F73" t="s">
-        <v>110</v>
-      </c>
-      <c r="G73" t="s">
-        <v>110</v>
-      </c>
-      <c r="H73" t="s">
-        <v>110</v>
-      </c>
-      <c r="I73" t="s">
-        <v>110</v>
-      </c>
-      <c r="J73" t="s">
-        <v>110</v>
-      </c>
-      <c r="K73" t="s">
-        <v>110</v>
-      </c>
-      <c r="L73" t="s">
-        <v>110</v>
-      </c>
-      <c r="M73" t="s">
-        <v>110</v>
-      </c>
-      <c r="N73" t="s">
-        <v>110</v>
-      </c>
-      <c r="O73" t="s">
-        <v>110</v>
-      </c>
-      <c r="P73" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>110</v>
-      </c>
-      <c r="R73" t="s">
-        <v>110</v>
-      </c>
-      <c r="S73" t="s">
-        <v>110</v>
-      </c>
-      <c r="T73" t="s">
-        <v>110</v>
-      </c>
-      <c r="U73" t="s">
-        <v>110</v>
-      </c>
-      <c r="V73" t="s">
-        <v>110</v>
-      </c>
-      <c r="W73" t="s">
-        <v>110</v>
-      </c>
-      <c r="X73" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY73" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BB73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BD73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BG73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BJ73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BK73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BL73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BM73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BN73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BP73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BQ73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BR73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BS73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BU73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BV73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BW73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BX73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BY73" t="s">
-        <v>110</v>
-      </c>
-      <c r="BZ73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CA73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CB73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CC73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CD73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CE73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CF73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CG73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CH73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CI73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CJ73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CK73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CL73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CM73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CN73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CO73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CP73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CQ73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CR73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CS73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CT73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CU73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CV73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CW73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CX73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CY73" t="s">
-        <v>110</v>
-      </c>
-      <c r="CZ73" t="s">
-        <v>110</v>
-      </c>
-      <c r="DA73" t="s">
-        <v>110</v>
-      </c>
-      <c r="DB73" t="s">
-        <v>110</v>
-      </c>
-      <c r="DC73" t="s">
-        <v>110</v>
-      </c>
-      <c r="DD73" t="s">
-        <v>110</v>
-      </c>
-      <c r="DE73" t="s">
-        <v>110</v>
-      </c>
-      <c r="DF73" t="s">
-        <v>110</v>
-      </c>
-      <c r="DG73" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:DG1201">
-    <sortCondition ref="A2:A1201"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:DG1198">
+    <sortCondition ref="A2:A1198"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
